--- a/06-22-25 to 06-28-25 Madison Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Madison Schedule.xlsx
@@ -1097,11 +1097,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1181,7 +1177,11 @@
           <t>Brianna</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>

--- a/06-22-25 to 06-28-25 Madison Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Madison Schedule.xlsx
@@ -874,7 +874,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/YcFP9FTjTEs94iQh7</t>
+          <t>https://maps.app.goo.gl/bmiu2xRHqAhfZZS16</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>

--- a/06-22-25 to 06-28-25 Madison Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Madison Schedule.xlsx
@@ -2113,7 +2113,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah &amp; Lori at **Home Depot Verona Rd</t>
+          <t>5:00 am meet for Sarah &amp; Lori at **Festival Foods Baraboo</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>

--- a/06-22-25 to 06-28-25 Madison Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Madison Schedule.xlsx
@@ -3103,7 +3103,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3361,12 +3361,13 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -3433,13 +3434,12 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -4065,21 +4065,9 @@
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
@@ -4088,7 +4076,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -4132,21 +4120,9 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>
@@ -4180,7 +4156,11 @@
       </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -4221,7 +4201,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4264,7 +4244,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4307,7 +4287,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
+          <t>3338 N MAIN ST</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4350,7 +4330,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>3338 N MAIN ST</t>
+          <t>https://goo.gl/maps/PPgMB73RP522</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4393,7 +4373,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PPgMB73RP522</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4434,11 +4414,7 @@
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -4476,9 +4452,21 @@
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
@@ -4517,19 +4505,15 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -4568,12 +4552,12 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4615,12 +4599,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4650,12 +4634,12 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4685,12 +4669,12 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4725,12 +4709,12 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -4766,16 +4750,8 @@
         </is>
       </c>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>

--- a/06-22-25 to 06-28-25 Madison Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Madison Schedule.xlsx
@@ -3652,7 +3652,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -4120,9 +4120,21 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>

--- a/06-22-25 to 06-28-25 Madison Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Madison Schedule.xlsx
@@ -3378,15 +3378,10 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3450,7 +3445,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3517,10 +3512,15 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3592,13 +3592,12 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
@@ -3652,7 +3651,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3727,7 +3726,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3798,7 +3797,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3873,7 +3872,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3948,7 +3947,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4025,7 +4024,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -4076,7 +4075,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -4120,21 +4119,9 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
     </row>

--- a/06-22-25 to 06-28-25 Madison Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Madison Schedule.xlsx
@@ -904,11 +904,7 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PJWQKTGctT22</t>
-        </is>
-      </c>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
